--- a/todo_GE.xlsx
+++ b/todo_GE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test task" sheetId="1" r:id="rId1"/>
@@ -678,8 +678,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +716,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -726,8 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -807,39 +829,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -853,23 +856,49 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -907,7 +936,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -941,6 +970,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -975,9 +1005,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1150,364 +1181,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="79.2" customHeight="1">
-      <c r="A6" s="12">
+    <row r="6" spans="1:8" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>16</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="49.2" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="C7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="136.19999999999999" customHeight="1">
-      <c r="A8" s="14">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="199.2" customHeight="1">
-      <c r="A9" s="14">
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="199.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="106.2" customHeight="1">
-      <c r="A10" s="15">
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="C10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="C11" s="13"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="C12" s="13"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="72">
-      <c r="A18" s="16" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8">
-      <c r="A19" s="17" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>16</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="16" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>8</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2">
-      <c r="A21" s="16" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.8">
-      <c r="A23" s="16" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>16</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.8">
-      <c r="A24" s="16" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>16</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="57.6" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>24</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="40.200000000000003" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>48</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="105.6" customHeight="1">
-      <c r="A27" s="16" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>30</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1515,12 +1546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1528,12 +1559,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/todo_GE.xlsx
+++ b/todo_GE.xlsx
@@ -93,9 +93,6 @@
     <t>Разобраться и установить Kafka</t>
   </si>
   <si>
-    <t>Настройка среды разработки + изучение технологий</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
@@ -669,10 +666,13 @@
     </r>
   </si>
   <si>
-    <t>Story Points для выполнение тестового задания</t>
-  </si>
-  <si>
     <t>План работ</t>
+  </si>
+  <si>
+    <t>1. Story Points для выполнение тестового задания</t>
+  </si>
+  <si>
+    <t>2. Настройка среды разработки + изучение технологий</t>
   </si>
 </sst>
 </file>
@@ -707,16 +707,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -734,6 +724,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -831,7 +831,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -856,13 +856,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -875,9 +868,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1185,7 +1185,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,14 +1199,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1217,16 +1217,16 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18" t="s">
@@ -1240,13 +1240,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>16</v>
@@ -1254,11 +1254,11 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>20</v>
@@ -1271,10 +1271,10 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>40</v>
@@ -1287,10 +1287,10 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>40</v>
@@ -1303,10 +1303,10 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>30</v>
@@ -1314,13 +1314,13 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>8</v>
@@ -1328,11 +1328,11 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>8</v>
@@ -1346,8 +1346,8 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
+      <c r="A15" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,10 +1500,10 @@
     </row>
     <row r="26" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="27" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1528,17 +1528,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/todo_GE.xlsx
+++ b/todo_GE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -856,6 +856,8 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -877,8 +879,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -890,6 +890,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -938,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,7 +976,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,7 +1188,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,14 +1202,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1217,53 +1220,57 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>16</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -1271,15 +1278,17 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>16</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -1287,15 +1296,17 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>16</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -1303,41 +1314,47 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -1346,25 +1363,25 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1382,7 +1399,9 @@
       <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -1424,7 +1443,9 @@
       <c r="E20" s="3">
         <v>8</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1452,7 +1473,9 @@
       <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1482,7 +1505,9 @@
       <c r="E24" s="3">
         <v>16</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1496,7 +1521,9 @@
       <c r="E25" s="3">
         <v>24</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -1510,7 +1537,9 @@
       <c r="E26" s="3">
         <v>48</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
